--- a/configuration reglage.xlsx
+++ b/configuration reglage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDUSCMAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A52B87F-3078-4C6B-82CB-3FEDF4C31866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FE3CE2-335C-4AA9-805F-021B14081273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0BCE9C0-4E7B-4244-B915-9A8AE287C0F6}"/>
   </bookViews>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,25 +176,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -209,15 +197,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,271 +517,845 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00322516-E084-4D76-9DF8-32F84D72BD60}">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="30" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="28.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="B2">
+        <v>5.73</v>
+      </c>
+      <c r="C2">
+        <v>2.81</v>
+      </c>
+      <c r="D2">
+        <v>3.41</v>
+      </c>
+      <c r="E2">
+        <v>1.76</v>
+      </c>
+      <c r="F2">
+        <v>2.31</v>
+      </c>
+      <c r="G2">
+        <v>1.26</v>
+      </c>
+      <c r="H2">
+        <v>1.76</v>
+      </c>
+      <c r="I2">
+        <v>0.83</v>
+      </c>
+      <c r="J2">
+        <v>1.29</v>
+      </c>
+      <c r="K2">
+        <v>0.63</v>
+      </c>
+      <c r="L2">
+        <v>1.05</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
+      <c r="N2">
+        <v>0.88</v>
+      </c>
+      <c r="O2">
+        <v>9999</v>
+      </c>
+      <c r="P2">
+        <v>9999</v>
+      </c>
+      <c r="Q2">
+        <v>0.09</v>
+      </c>
+      <c r="R2">
+        <v>0.13</v>
+      </c>
+      <c r="S2">
+        <v>0.09</v>
+      </c>
+      <c r="T2">
+        <v>0.13</v>
+      </c>
+      <c r="U2">
+        <v>9999</v>
+      </c>
+      <c r="V2">
+        <v>9999</v>
+      </c>
+      <c r="W2">
+        <v>9999</v>
+      </c>
+      <c r="X2">
+        <v>9999</v>
+      </c>
+      <c r="Y2">
+        <v>9999</v>
+      </c>
+      <c r="Z2">
+        <v>9999</v>
+      </c>
+      <c r="AA2">
+        <v>9999</v>
+      </c>
+      <c r="AB2">
+        <v>9999</v>
+      </c>
+      <c r="AC2">
+        <v>9999</v>
+      </c>
+      <c r="AD2">
+        <v>9999</v>
+      </c>
+      <c r="AE2">
+        <v>9999</v>
+      </c>
+      <c r="AF2">
+        <v>9999</v>
+      </c>
+      <c r="AG2">
+        <v>9999</v>
+      </c>
+      <c r="AH2">
+        <v>9999</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>6</v>
+      </c>
+      <c r="AK2">
+        <v>2</v>
+      </c>
+      <c r="AL2">
+        <v>6</v>
+      </c>
+      <c r="AM2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.08</v>
+      </c>
+      <c r="B3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2.33</v>
+      </c>
+      <c r="F3">
+        <v>2.87</v>
+      </c>
+      <c r="G3">
+        <v>1.35</v>
+      </c>
+      <c r="H3">
+        <v>1.85</v>
+      </c>
+      <c r="I3">
+        <v>0.97</v>
+      </c>
+      <c r="J3">
+        <v>1.43</v>
+      </c>
+      <c r="K3">
+        <v>0.79</v>
+      </c>
+      <c r="L3">
+        <v>1.21</v>
+      </c>
+      <c r="M3">
+        <v>0.67</v>
+      </c>
+      <c r="N3">
+        <v>1.05</v>
+      </c>
+      <c r="O3">
+        <v>9999</v>
+      </c>
+      <c r="P3">
+        <v>9999</v>
+      </c>
+      <c r="Q3">
+        <v>0.1</v>
+      </c>
+      <c r="R3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.1</v>
+      </c>
+      <c r="T3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>100</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
+      <c r="AA3">
+        <v>9999</v>
+      </c>
+      <c r="AB3">
+        <v>9999</v>
+      </c>
+      <c r="AC3">
+        <v>9999</v>
+      </c>
+      <c r="AD3">
+        <v>9999</v>
+      </c>
+      <c r="AE3">
+        <v>9999</v>
+      </c>
+      <c r="AF3">
+        <v>9999</v>
+      </c>
+      <c r="AG3">
+        <v>9999</v>
+      </c>
+      <c r="AH3">
+        <v>9999</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AJ3">
+        <v>6</v>
+      </c>
+      <c r="AK3">
+        <v>2</v>
+      </c>
+      <c r="AL3">
+        <v>6</v>
+      </c>
+      <c r="AM3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.63</v>
+      </c>
+      <c r="B4">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C4">
+        <v>2.78</v>
+      </c>
+      <c r="D4">
+        <v>3.38</v>
+      </c>
+      <c r="E4">
+        <v>1.92</v>
+      </c>
+      <c r="F4">
+        <v>2.46</v>
+      </c>
+      <c r="G4">
+        <v>1.38</v>
+      </c>
+      <c r="H4">
+        <v>1.88</v>
+      </c>
+      <c r="I4">
+        <v>1.06</v>
+      </c>
+      <c r="J4">
+        <v>1.52</v>
+      </c>
+      <c r="K4">
+        <v>0.82</v>
+      </c>
+      <c r="L4">
+        <v>1.24</v>
+      </c>
+      <c r="M4">
+        <v>0.65</v>
+      </c>
+      <c r="N4">
+        <v>1.03</v>
+      </c>
+      <c r="O4">
+        <v>0.51</v>
+      </c>
+      <c r="P4">
+        <v>0.87</v>
+      </c>
+      <c r="Q4">
+        <v>0.08</v>
+      </c>
+      <c r="R4">
+        <v>0.12</v>
+      </c>
+      <c r="S4">
+        <v>0.08</v>
+      </c>
+      <c r="T4">
+        <v>0.12</v>
+      </c>
+      <c r="U4">
+        <v>9999</v>
+      </c>
+      <c r="V4">
+        <v>9999</v>
+      </c>
+      <c r="W4">
+        <v>9999</v>
+      </c>
+      <c r="X4">
+        <v>9999</v>
+      </c>
+      <c r="Y4">
+        <v>9999</v>
+      </c>
+      <c r="Z4">
+        <v>9999</v>
+      </c>
+      <c r="AA4">
+        <v>9999</v>
+      </c>
+      <c r="AB4">
+        <v>9999</v>
+      </c>
+      <c r="AC4">
+        <v>9999</v>
+      </c>
+      <c r="AD4">
+        <v>9999</v>
+      </c>
+      <c r="AE4">
+        <v>9999</v>
+      </c>
+      <c r="AF4">
+        <v>9999</v>
+      </c>
+      <c r="AG4">
+        <v>9999</v>
+      </c>
+      <c r="AH4">
+        <v>9999</v>
+      </c>
+      <c r="AI4">
+        <v>9999</v>
+      </c>
+      <c r="AJ4">
+        <v>9999</v>
+      </c>
+      <c r="AK4">
+        <v>9999</v>
+      </c>
+      <c r="AL4">
+        <v>9999</v>
+      </c>
+      <c r="AM4">
         <v>47</v>
       </c>
-      <c r="B2">
-        <v>3.63</v>
-      </c>
-      <c r="C2">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="D2">
-        <v>2.78</v>
-      </c>
-      <c r="E2">
-        <v>3.38</v>
-      </c>
-      <c r="F2">
-        <v>1.92</v>
-      </c>
-      <c r="G2">
-        <v>2.46</v>
-      </c>
-      <c r="H2">
-        <v>1.38</v>
-      </c>
-      <c r="I2">
-        <v>1.88</v>
-      </c>
-      <c r="J2">
-        <v>1.06</v>
-      </c>
-      <c r="K2">
-        <v>1.52</v>
-      </c>
-      <c r="L2">
-        <v>0.82</v>
-      </c>
-      <c r="M2">
-        <v>1.24</v>
-      </c>
-      <c r="N2">
-        <v>0.65</v>
-      </c>
-      <c r="O2">
-        <v>1.03</v>
-      </c>
-      <c r="P2">
-        <v>0.51</v>
-      </c>
-      <c r="Q2">
-        <v>0.87</v>
-      </c>
-      <c r="R2">
-        <v>0.08</v>
-      </c>
-      <c r="S2">
-        <v>0.12</v>
-      </c>
-      <c r="T2">
-        <v>0.08</v>
-      </c>
-      <c r="U2">
-        <v>0.12</v>
-      </c>
-      <c r="V2">
-        <v>9999</v>
-      </c>
-      <c r="W2">
-        <v>9999</v>
-      </c>
-      <c r="X2">
-        <v>9999</v>
-      </c>
-      <c r="Y2">
-        <v>9999</v>
-      </c>
-      <c r="Z2">
-        <v>9999</v>
-      </c>
-      <c r="AA2">
-        <v>9999</v>
-      </c>
-      <c r="AB2">
-        <v>9999</v>
-      </c>
-      <c r="AC2">
-        <v>9999</v>
-      </c>
-      <c r="AD2">
-        <v>9999</v>
-      </c>
-      <c r="AE2">
-        <v>9999</v>
-      </c>
-      <c r="AF2">
-        <v>9999</v>
-      </c>
-      <c r="AG2">
-        <v>9999</v>
-      </c>
-      <c r="AH2">
-        <v>9999</v>
-      </c>
-      <c r="AI2">
-        <v>9999</v>
-      </c>
-      <c r="AJ2">
-        <v>9999</v>
-      </c>
-      <c r="AK2">
-        <v>9999</v>
-      </c>
-      <c r="AL2">
-        <v>9999</v>
-      </c>
-      <c r="AM2">
-        <v>9999</v>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="B5">
+        <v>3.59</v>
+      </c>
+      <c r="C5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2.33</v>
+      </c>
+      <c r="F5">
+        <v>2.87</v>
+      </c>
+      <c r="G5">
+        <v>1.35</v>
+      </c>
+      <c r="H5">
+        <v>1.85</v>
+      </c>
+      <c r="I5">
+        <v>0.97</v>
+      </c>
+      <c r="J5">
+        <v>1.43</v>
+      </c>
+      <c r="K5">
+        <v>0.79</v>
+      </c>
+      <c r="L5">
+        <v>1.21</v>
+      </c>
+      <c r="M5">
+        <v>0.67</v>
+      </c>
+      <c r="N5">
+        <v>1.05</v>
+      </c>
+      <c r="O5">
+        <v>9999</v>
+      </c>
+      <c r="P5">
+        <v>9999</v>
+      </c>
+      <c r="Q5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R5">
+        <v>0.11</v>
+      </c>
+      <c r="S5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T5">
+        <v>0.11</v>
+      </c>
+      <c r="U5">
+        <v>9999</v>
+      </c>
+      <c r="V5">
+        <v>9999</v>
+      </c>
+      <c r="W5">
+        <v>9999</v>
+      </c>
+      <c r="X5">
+        <v>9999</v>
+      </c>
+      <c r="Y5">
+        <v>9999</v>
+      </c>
+      <c r="Z5">
+        <v>9999</v>
+      </c>
+      <c r="AA5">
+        <v>9999</v>
+      </c>
+      <c r="AB5">
+        <v>9999</v>
+      </c>
+      <c r="AC5">
+        <v>9999</v>
+      </c>
+      <c r="AD5">
+        <v>9999</v>
+      </c>
+      <c r="AE5">
+        <v>9999</v>
+      </c>
+      <c r="AF5">
+        <v>9999</v>
+      </c>
+      <c r="AG5">
+        <v>9999</v>
+      </c>
+      <c r="AH5">
+        <v>9999</v>
+      </c>
+      <c r="AI5">
+        <v>9999</v>
+      </c>
+      <c r="AJ5">
+        <v>9999</v>
+      </c>
+      <c r="AK5">
+        <v>9999</v>
+      </c>
+      <c r="AL5">
+        <v>9999</v>
+      </c>
+      <c r="AM5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.93</v>
+      </c>
+      <c r="B6">
+        <v>4.99</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6">
+        <v>4.09</v>
+      </c>
+      <c r="E6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F6">
+        <v>2.6</v>
+      </c>
+      <c r="G6">
+        <v>1.39</v>
+      </c>
+      <c r="H6">
+        <v>1.89</v>
+      </c>
+      <c r="I6">
+        <v>1.04</v>
+      </c>
+      <c r="J6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
+        <v>0.79</v>
+      </c>
+      <c r="L6">
+        <v>1.21</v>
+      </c>
+      <c r="M6">
+        <v>0.6</v>
+      </c>
+      <c r="N6">
+        <v>0.99</v>
+      </c>
+      <c r="O6">
+        <v>9999</v>
+      </c>
+      <c r="P6">
+        <v>9999</v>
+      </c>
+      <c r="Q6">
+        <v>0.11</v>
+      </c>
+      <c r="R6">
+        <v>0.15</v>
+      </c>
+      <c r="S6">
+        <v>0.11</v>
+      </c>
+      <c r="T6">
+        <v>0.15</v>
+      </c>
+      <c r="U6">
+        <v>9999</v>
+      </c>
+      <c r="V6">
+        <v>9999</v>
+      </c>
+      <c r="W6">
+        <v>9999</v>
+      </c>
+      <c r="X6">
+        <v>9999</v>
+      </c>
+      <c r="Y6">
+        <v>9999</v>
+      </c>
+      <c r="Z6">
+        <v>9999</v>
+      </c>
+      <c r="AA6">
+        <v>9999</v>
+      </c>
+      <c r="AB6">
+        <v>9999</v>
+      </c>
+      <c r="AC6">
+        <v>9999</v>
+      </c>
+      <c r="AD6">
+        <v>9999</v>
+      </c>
+      <c r="AE6">
+        <v>9999</v>
+      </c>
+      <c r="AF6">
+        <v>9999</v>
+      </c>
+      <c r="AG6">
+        <v>9999</v>
+      </c>
+      <c r="AH6">
+        <v>9999</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <v>6</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>6</v>
+      </c>
+      <c r="AM6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.18</v>
+      </c>
+      <c r="B7">
+        <v>4.24</v>
+      </c>
+      <c r="C7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2.33</v>
+      </c>
+      <c r="F7">
+        <v>2.87</v>
+      </c>
+      <c r="G7">
+        <v>1.35</v>
+      </c>
+      <c r="H7">
+        <v>1.85</v>
+      </c>
+      <c r="I7">
+        <v>0.97</v>
+      </c>
+      <c r="J7">
+        <v>1.43</v>
+      </c>
+      <c r="K7">
+        <v>0.79</v>
+      </c>
+      <c r="L7">
+        <v>1.21</v>
+      </c>
+      <c r="M7">
+        <v>0.67</v>
+      </c>
+      <c r="N7">
+        <v>1.05</v>
+      </c>
+      <c r="O7">
+        <v>9999</v>
+      </c>
+      <c r="P7">
+        <v>9999</v>
+      </c>
+      <c r="Q7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.18</v>
+      </c>
+      <c r="S7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.18</v>
+      </c>
+      <c r="U7">
+        <v>9999</v>
+      </c>
+      <c r="V7">
+        <v>9999</v>
+      </c>
+      <c r="W7">
+        <v>9999</v>
+      </c>
+      <c r="X7">
+        <v>9999</v>
+      </c>
+      <c r="Y7">
+        <v>9999</v>
+      </c>
+      <c r="Z7">
+        <v>9999</v>
+      </c>
+      <c r="AA7">
+        <v>9999</v>
+      </c>
+      <c r="AB7">
+        <v>9999</v>
+      </c>
+      <c r="AC7">
+        <v>9999</v>
+      </c>
+      <c r="AD7">
+        <v>9999</v>
+      </c>
+      <c r="AE7">
+        <v>9999</v>
+      </c>
+      <c r="AF7">
+        <v>9999</v>
+      </c>
+      <c r="AG7">
+        <v>9999</v>
+      </c>
+      <c r="AH7">
+        <v>9999</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>6</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
+      <c r="AL7">
+        <v>6</v>
+      </c>
+      <c r="AM7">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/configuration reglage.xlsx
+++ b/configuration reglage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDUSCMAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8D6403-27E2-4AEC-B68D-20A9C5F7F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90C90C4-1220-4E2A-833F-A22438E7F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -900,11 +900,148 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="36">
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -956,14 +1093,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Feuille 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="Feuille 2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -978,7 +1115,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="config" displayName="config" ref="A1:AO27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="config" displayName="config" ref="A1:AO30">
   <tableColumns count="41">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="car_id"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="rapport_final_min"/>
@@ -987,40 +1124,40 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="premiere_vitesse_max"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="deuxieme_vitesse_min"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="deuxieme_vitesse_max"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="troisieme_vitesse_min"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="troisieme_vitesse_max"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="quatrieme_vitesse_min"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="quatrieme_vitesse_max"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="cinquieme_vitesse_min"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="cinquieme_vitesse_max"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="sixieme_vitesse_min"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="sixieme_vitesse_max"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="septieme_vitesse_min"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="septieme_vitesse_max"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="huitieme_vitesse_min"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="huitieme_vitesse_max"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="troisieme_vitesse_min" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="troisieme_vitesse_max" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="quatrieme_vitesse_min" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="quatrieme_vitesse_max" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="cinquieme_vitesse_min" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="cinquieme_vitesse_max" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="sixieme_vitesse_min" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="sixieme_vitesse_max" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="septieme_vitesse_min" dataDxfId="21"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="septieme_vitesse_max" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="huitieme_vitesse_min" dataDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="huitieme_vitesse_max" dataDxfId="18"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="taille_suspension_arriere_min"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="taille_suspension_arriere_max"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="taille_suspension_avant_min"/>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="taille_suspension_avant_max"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="acceleration_avant_min"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="acceleration_avant_max"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="deceleration_avant_min"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="deceleration_avant_max"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="freinage_avant_min"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="freinage_avant_max"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="distribution_puissance_avant_arriere_min"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="distribution_puissance_avant_arriere_max"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="acceleration_centrale_min"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="acceleration_centrale_max"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="deceleration_centrale_min"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="deceleration_centrale_max"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="freinage_centrale_min"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="freinage_centrale_max"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="pression_pneus_arriere_min"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="pression_pneus_arriere_max"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="pression_pneus_avant_min"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="pression_pneus_avant_max"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="acceleration_avant_min" dataDxfId="17"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="acceleration_avant_max" dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="deceleration_avant_min" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="deceleration_avant_max" dataDxfId="14"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="freinage_avant_min" dataDxfId="13"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="freinage_avant_max" dataDxfId="12"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="distribution_puissance_avant_arriere_min" dataDxfId="11"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="distribution_puissance_avant_arriere_max" dataDxfId="10"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="acceleration_centrale_min" dataDxfId="9"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="acceleration_centrale_max" dataDxfId="8"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="deceleration_centrale_min" dataDxfId="7"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="deceleration_centrale_max" dataDxfId="6"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="freinage_centrale_min" dataDxfId="5"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="freinage_centrale_max" dataDxfId="4"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="pression_pneus_arriere_min" dataDxfId="3"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="pression_pneus_arriere_max" dataDxfId="2"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="pression_pneus_avant_min" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="pression_pneus_avant_max" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Feuille 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,15 +1415,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="41" max="41" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" style="37"/>
+    <col min="10" max="11" width="12.5703125" style="38"/>
+    <col min="13" max="14" width="12.5703125" style="38"/>
+    <col min="16" max="19" width="12.5703125" style="38"/>
+    <col min="24" max="40" width="12.5703125" style="38"/>
+    <col min="41" max="41" width="28.85546875" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" customHeight="1">
@@ -1311,40 +1453,40 @@
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="31" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="31" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="31" t="s">
         <v>20</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -1359,58 +1501,58 @@
       <c r="W1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="39" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1436,10 +1578,10 @@
       <c r="G2" s="14">
         <v>2.31</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="35">
         <v>1.26</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="35">
         <v>1.76</v>
       </c>
       <c r="J2" s="14">
@@ -1448,7 +1590,7 @@
       <c r="K2" s="14">
         <v>1.29</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="32">
         <v>0.63</v>
       </c>
       <c r="M2" s="14">
@@ -1457,7 +1599,7 @@
       <c r="N2" s="14">
         <v>0.5</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="32">
         <v>0.88</v>
       </c>
       <c r="P2" s="14">
@@ -1561,40 +1703,40 @@
       <c r="G3" s="12">
         <v>2.42</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="29">
         <v>1.18</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="29">
         <v>1.68</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="29">
         <v>0.79</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="29">
         <v>1.25</v>
       </c>
       <c r="L3" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="29">
         <v>1</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="29">
         <v>0.45</v>
       </c>
       <c r="O3" s="12">
         <v>0.84</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="29">
         <v>0.36</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="29">
         <v>0.72</v>
       </c>
-      <c r="R3" s="16">
-        <v>9999</v>
-      </c>
-      <c r="S3" s="16">
+      <c r="R3" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S3" s="27">
         <v>9999</v>
       </c>
       <c r="T3" s="12">
@@ -1609,58 +1751,58 @@
       <c r="W3" s="12">
         <v>0.17</v>
       </c>
-      <c r="X3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="12">
-        <v>100</v>
-      </c>
-      <c r="Z3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>100</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="12">
-        <v>100</v>
-      </c>
-      <c r="AD3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>100</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="12">
-        <v>100</v>
-      </c>
-      <c r="AH3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="12">
-        <v>100</v>
-      </c>
-      <c r="AJ3" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="12">
-        <v>100</v>
-      </c>
-      <c r="AL3" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AM3" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AN3" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AO3" s="17">
+      <c r="X3" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="29">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="29">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="29">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="29">
+        <v>100</v>
+      </c>
+      <c r="AF3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="29">
+        <v>100</v>
+      </c>
+      <c r="AH3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="29">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="29">
+        <v>100</v>
+      </c>
+      <c r="AL3" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AM3" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AN3" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AO3" s="28">
         <v>9999</v>
       </c>
     </row>
@@ -1686,40 +1828,40 @@
       <c r="G4" s="9">
         <v>2.36</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="26">
         <v>1.26</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="26">
         <v>1.76</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="26">
         <v>0.91</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="26">
         <v>1.37</v>
       </c>
       <c r="L4" s="9">
         <v>0.69</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="26">
         <v>1.1100000000000001</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="26">
         <v>0.52</v>
       </c>
       <c r="O4" s="9">
         <v>0.91</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="26">
         <v>0.35</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="26">
         <v>0.7</v>
       </c>
-      <c r="R4" s="9">
-        <v>9999</v>
-      </c>
-      <c r="S4" s="9">
+      <c r="R4" s="26">
+        <v>9999</v>
+      </c>
+      <c r="S4" s="26">
         <v>9999</v>
       </c>
       <c r="T4" s="9">
@@ -1734,58 +1876,58 @@
       <c r="W4" s="9">
         <v>0.13</v>
       </c>
-      <c r="X4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AD4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AE4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AF4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AG4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AH4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AI4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AJ4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AK4" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AL4" s="18">
+      <c r="X4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Y4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Z4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AE4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AG4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AH4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AI4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AJ4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AK4" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AL4" s="40">
         <v>2</v>
       </c>
-      <c r="AM4" s="9">
+      <c r="AM4" s="26">
         <v>6</v>
       </c>
-      <c r="AN4" s="9">
+      <c r="AN4" s="26">
         <v>2</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AO4" s="41">
         <v>6</v>
       </c>
     </row>
@@ -1811,40 +1953,40 @@
       <c r="G5" s="12">
         <v>8.43</v>
       </c>
-      <c r="H5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="I5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="J5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="K5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="L5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="M5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="N5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="O5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="P5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="S5" s="16">
+      <c r="H5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="I5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="J5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="K5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="L5" s="33">
+        <v>9999</v>
+      </c>
+      <c r="M5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="N5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="O5" s="33">
+        <v>9999</v>
+      </c>
+      <c r="P5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="R5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S5" s="27">
         <v>9999</v>
       </c>
       <c r="T5" s="12">
@@ -1859,56 +2001,56 @@
       <c r="W5" s="12">
         <v>0.13</v>
       </c>
-      <c r="X5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>100</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="12">
-        <v>100</v>
-      </c>
-      <c r="AB5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>100</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="12">
-        <v>100</v>
-      </c>
-      <c r="AF5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="12">
-        <v>100</v>
-      </c>
-      <c r="AH5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="12">
-        <v>100</v>
-      </c>
-      <c r="AJ5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="12">
-        <v>100</v>
-      </c>
-      <c r="AL5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AM5" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="13"/>
+      <c r="X5" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="29">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="29">
+        <v>100</v>
+      </c>
+      <c r="AB5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="29">
+        <v>100</v>
+      </c>
+      <c r="AD5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="29">
+        <v>100</v>
+      </c>
+      <c r="AF5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="29">
+        <v>100</v>
+      </c>
+      <c r="AH5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="29">
+        <v>100</v>
+      </c>
+      <c r="AJ5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="29">
+        <v>100</v>
+      </c>
+      <c r="AL5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AM5" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="30"/>
     </row>
     <row r="6" spans="1:41" ht="12.75">
       <c r="A6" s="11">
@@ -1932,40 +2074,40 @@
       <c r="G6" s="12">
         <v>3.51</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="29">
         <v>1.83</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="29">
         <v>2.33</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="29">
         <v>1.19</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="29">
         <v>1.65</v>
       </c>
       <c r="L6" s="12">
         <v>0.84</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="29">
         <v>1.27</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="29">
         <v>0.65</v>
       </c>
       <c r="O6" s="12">
         <v>1.04</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="29">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="29">
         <v>0.86</v>
       </c>
-      <c r="R6" s="12">
-        <v>9999</v>
-      </c>
-      <c r="S6" s="12">
+      <c r="R6" s="29">
+        <v>9999</v>
+      </c>
+      <c r="S6" s="29">
         <v>9999</v>
       </c>
       <c r="T6" s="12">
@@ -1980,1189 +2122,1189 @@
       <c r="W6" s="12">
         <v>0.18</v>
       </c>
-      <c r="X6" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>100</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>100</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>100</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="12">
-        <v>100</v>
-      </c>
-      <c r="AF6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="12">
-        <v>100</v>
-      </c>
-      <c r="AH6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="12">
-        <v>100</v>
-      </c>
-      <c r="AJ6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="12">
-        <v>100</v>
-      </c>
-      <c r="AL6" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AM6" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AN6" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AO6" s="13">
+      <c r="X6" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>100</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>100</v>
+      </c>
+      <c r="AB6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="29">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="29">
+        <v>100</v>
+      </c>
+      <c r="AF6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="29">
+        <v>100</v>
+      </c>
+      <c r="AH6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="29">
+        <v>100</v>
+      </c>
+      <c r="AJ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="29">
+        <v>100</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AM6" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AN6" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AO6" s="30">
         <v>9999</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="12.75">
       <c r="A7" s="11">
-        <v>28</v>
-      </c>
-      <c r="B7" s="12">
-        <v>2.41</v>
-      </c>
-      <c r="C7" s="12">
-        <v>3.11</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2.88</v>
-      </c>
-      <c r="E7" s="12">
-        <v>3.47</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1.99</v>
-      </c>
-      <c r="G7" s="12">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E7" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5.73</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6.27</v>
+      </c>
+      <c r="H7" s="26">
+        <v>4.25</v>
+      </c>
+      <c r="I7" s="26">
+        <v>4.75</v>
+      </c>
+      <c r="J7" s="26">
+        <v>3.22</v>
+      </c>
+      <c r="K7" s="26">
+        <v>3.68</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2.59</v>
+      </c>
+      <c r="M7" s="26">
+        <v>3.01</v>
+      </c>
+      <c r="N7" s="26">
+        <v>2.16</v>
+      </c>
+      <c r="O7" s="9">
         <v>2.54</v>
       </c>
-      <c r="H7" s="12">
-        <v>1.42</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1.92</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1.06</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1.52</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1.27</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0.68</v>
-      </c>
-      <c r="O7" s="12">
-        <v>1.07</v>
-      </c>
-      <c r="P7" s="12">
-        <v>0.62</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>0.97</v>
-      </c>
-      <c r="R7" s="16">
-        <v>9999</v>
-      </c>
-      <c r="S7" s="16">
-        <v>9999</v>
-      </c>
-      <c r="T7" s="12">
+      <c r="P7" s="26">
+        <v>1.96</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="R7" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S7" s="27">
+        <v>9999</v>
+      </c>
+      <c r="T7" s="9">
         <v>0.09</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="9">
         <v>0.15</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="9">
         <v>0.09</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="9">
         <v>0.15</v>
       </c>
-      <c r="X7" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>100</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="12">
-        <v>100</v>
-      </c>
-      <c r="AB7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>100</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="12">
-        <v>100</v>
-      </c>
-      <c r="AF7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="12">
-        <v>100</v>
-      </c>
-      <c r="AH7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="12">
-        <v>100</v>
-      </c>
-      <c r="AJ7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="12">
-        <v>100</v>
-      </c>
-      <c r="AL7" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AM7" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AN7" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AO7" s="17">
+      <c r="X7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>100</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="26">
+        <v>100</v>
+      </c>
+      <c r="AF7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="26">
+        <v>100</v>
+      </c>
+      <c r="AH7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="26">
+        <v>100</v>
+      </c>
+      <c r="AJ7" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="26">
+        <v>100</v>
+      </c>
+      <c r="AL7" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AM7" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AN7" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AO7" s="28">
         <v>9999</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="12.75">
       <c r="A8" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="12">
-        <v>3.12</v>
+        <v>2.41</v>
       </c>
       <c r="C8" s="12">
-        <v>3.83</v>
+        <v>3.11</v>
       </c>
       <c r="D8" s="12">
-        <v>2.39</v>
+        <v>2.88</v>
       </c>
       <c r="E8" s="12">
-        <v>2.99</v>
+        <v>3.47</v>
       </c>
       <c r="F8" s="12">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
       <c r="G8" s="12">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1.34</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1.84</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1.55</v>
+        <v>2.54</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1.42</v>
+      </c>
+      <c r="I8" s="29">
+        <v>1.92</v>
+      </c>
+      <c r="J8" s="29">
+        <v>1.06</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1.52</v>
       </c>
       <c r="L8" s="12">
-        <v>0.92</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1.34</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0.81</v>
+        <v>0.85</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1.27</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0.68</v>
       </c>
       <c r="O8" s="12">
-        <v>1.19</v>
-      </c>
-      <c r="P8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="R8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="S8" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="P8" s="29">
+        <v>0.62</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>0.97</v>
+      </c>
+      <c r="R8" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S8" s="27">
         <v>9999</v>
       </c>
       <c r="T8" s="12">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="U8" s="12">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="V8" s="12">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="W8" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="X8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Y8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AA8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AB8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AC8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AD8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AE8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AF8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AG8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AH8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AI8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AJ8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AK8" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AL8" s="12">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="12">
-        <v>6</v>
-      </c>
-      <c r="AN8" s="12">
-        <v>2</v>
-      </c>
-      <c r="AO8" s="13">
-        <v>6</v>
+        <v>0.15</v>
+      </c>
+      <c r="X8" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="29">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="29">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="29">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="29">
+        <v>100</v>
+      </c>
+      <c r="AF8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="29">
+        <v>100</v>
+      </c>
+      <c r="AH8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="29">
+        <v>100</v>
+      </c>
+      <c r="AJ8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="29">
+        <v>100</v>
+      </c>
+      <c r="AL8" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AM8" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AN8" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AO8" s="28">
+        <v>9999</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="12.75">
       <c r="A9" s="11">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3.44</v>
-      </c>
-      <c r="C9" s="9">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="G9" s="9">
-        <v>2.11</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1.23</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1.73</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1.03</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1.49</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0.89</v>
-      </c>
-      <c r="M9" s="9">
-        <v>1.32</v>
-      </c>
-      <c r="N9" s="9">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12">
+        <v>3.12</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3.83</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2.39</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.99</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1.74</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1.34</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1.84</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1.55</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1.34</v>
+      </c>
+      <c r="N9" s="29">
         <v>0.81</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="12">
         <v>1.19</v>
       </c>
-      <c r="P9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="S9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="T9" s="9">
+      <c r="P9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="R9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="S9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T9" s="12">
         <v>0.12</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="12">
         <v>0.16</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="12">
         <v>0.12</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="12">
         <v>0.16</v>
       </c>
-      <c r="X9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AD9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AE9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AF9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AG9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AH9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AI9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AJ9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AK9" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AL9" s="9">
+      <c r="X9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Y9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Z9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AA9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AB9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AC9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AD9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AE9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AF9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AG9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AH9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AI9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AJ9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AK9" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AL9" s="29">
         <v>2</v>
       </c>
-      <c r="AM9" s="9">
+      <c r="AM9" s="29">
         <v>6</v>
       </c>
-      <c r="AN9" s="9">
+      <c r="AN9" s="29">
         <v>2</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AO9" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="12.75">
       <c r="A10" s="11">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3.44</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2.11</v>
+      </c>
+      <c r="H10" s="26">
+        <v>1.23</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1.73</v>
+      </c>
+      <c r="J10" s="26">
+        <v>1.03</v>
+      </c>
+      <c r="K10" s="26">
+        <v>1.49</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="M10" s="26">
+        <v>1.32</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0.81</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="P10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="X10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Y10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Z10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AB10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AC10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AD10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AE10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AF10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AG10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AH10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AI10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AJ10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AK10" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AL10" s="26">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="26">
+        <v>6</v>
+      </c>
+      <c r="AN10" s="26">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="12.75">
+      <c r="A11" s="11">
         <v>32</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B11" s="12">
         <v>3.57</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C11" s="12">
         <v>4.2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <v>2.36</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>2.96</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="12">
         <v>1.51</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="29">
         <v>1.05</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I11" s="29">
         <v>1.55</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J11" s="29">
         <v>0.77</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K11" s="29">
         <v>1.23</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L11" s="12">
         <v>0.53</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M11" s="29">
         <v>0.95</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N11" s="29">
         <v>0.49</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O11" s="12">
         <v>0.87</v>
       </c>
-      <c r="P10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="R10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="S10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="T10" s="12">
+      <c r="P11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="R11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="S11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T11" s="12">
         <v>0.16</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U11" s="12">
         <v>0.23</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V11" s="12">
         <v>0.16</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W11" s="12">
         <v>0.23</v>
       </c>
-      <c r="X10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AA10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AB10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AC10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AD10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AE10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AF10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AG10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AH10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AI10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AJ10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AK10" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AL10" s="12">
+      <c r="X11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AA11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AB11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AC11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AD11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AE11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AF11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AG11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AH11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AI11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AJ11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AK11" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AL11" s="29">
         <v>2</v>
       </c>
-      <c r="AM10" s="12">
+      <c r="AM11" s="29">
         <v>6</v>
       </c>
-      <c r="AN10" s="12">
+      <c r="AN11" s="29">
         <v>2</v>
       </c>
-      <c r="AO10" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="15">
-      <c r="A11" s="11">
-        <v>36</v>
-      </c>
-      <c r="B11" s="14">
-        <v>3.08</v>
-      </c>
-      <c r="C11" s="14">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D11" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E11" s="14">
-        <v>5</v>
-      </c>
-      <c r="F11" s="14">
-        <v>2.33</v>
-      </c>
-      <c r="G11" s="14">
-        <v>2.87</v>
-      </c>
-      <c r="H11" s="14">
-        <v>1.35</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1.85</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.97</v>
-      </c>
-      <c r="K11" s="14">
-        <v>1.43</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0.79</v>
-      </c>
-      <c r="M11" s="14">
-        <v>1.21</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0.67</v>
-      </c>
-      <c r="O11" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="P11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="R11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="S11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="T11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="U11" s="14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="V11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="W11" s="14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X11" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>100</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>100</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="14">
-        <v>100</v>
-      </c>
-      <c r="AD11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AE11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AF11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AG11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AH11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AI11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AJ11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AK11" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AL11" s="14">
-        <v>2</v>
-      </c>
-      <c r="AM11" s="14">
-        <v>6</v>
-      </c>
-      <c r="AN11" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO11" s="15">
+      <c r="AO11" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="15">
       <c r="A12" s="11">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14">
+        <v>3.08</v>
+      </c>
+      <c r="C12" s="14">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2.33</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="H12" s="35">
+        <v>1.35</v>
+      </c>
+      <c r="I12" s="35">
+        <v>1.85</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1.43</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0.79</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1.21</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="O12" s="32">
+        <v>1.05</v>
+      </c>
+      <c r="P12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="R12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="S12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AL12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="14">
+        <v>6</v>
+      </c>
+      <c r="AN12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15">
+      <c r="A13" s="11">
         <v>41</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B13" s="19">
         <v>3.18</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C13" s="19">
         <v>4.24</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E13" s="19">
         <v>5</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F13" s="19">
         <v>2.33</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G13" s="19">
         <v>2.87</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H13" s="36">
         <v>1.35</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I13" s="36">
         <v>1.85</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J13" s="19">
         <v>0.97</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K13" s="19">
         <v>1.43</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L13" s="34">
         <v>0.79</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M13" s="19">
         <v>1.21</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N13" s="19">
         <v>0.67</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O13" s="34">
         <v>1.05</v>
       </c>
-      <c r="P12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="R12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="S12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="T12" s="19">
+      <c r="P13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="R13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="S13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="T13" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U13" s="19">
         <v>0.18</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V13" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W13" s="19">
         <v>0.18</v>
       </c>
-      <c r="X12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="Y12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="Z12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AA12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AB12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AC12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AD12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AE12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AF12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AG12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AH12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AI12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AJ12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AK12" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AL12" s="19">
+      <c r="X13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AB13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AC13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AD13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AE13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AF13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AG13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AH13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AI13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AJ13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AK13" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AL13" s="19">
         <v>2</v>
       </c>
-      <c r="AM12" s="19">
+      <c r="AM13" s="19">
         <v>6</v>
       </c>
-      <c r="AN12" s="19">
+      <c r="AN13" s="19">
         <v>2</v>
       </c>
-      <c r="AO12" s="20">
+      <c r="AO13" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="12.75">
-      <c r="A13" s="11">
+    <row r="14" spans="1:41" ht="12.75">
+      <c r="A14" s="11">
         <v>43</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9">
         <v>3.63</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="9">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>3.04</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>3.63</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>2.0099999999999998</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>2.56</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="26">
         <v>1.48</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="26">
         <v>1.98</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="26">
         <v>1.1399999999999999</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="26">
         <v>1.6</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <v>0.9</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M14" s="26">
         <v>1.33</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="26">
         <v>0.68</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O14" s="9">
         <v>1.07</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P14" s="26">
         <v>0.46</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q14" s="26">
         <v>0.82</v>
       </c>
-      <c r="R13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="S13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="T13" s="9">
+      <c r="R14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="S14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="T14" s="9">
         <v>0.08</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U14" s="9">
         <v>0.12</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V14" s="9">
         <v>0.08</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W14" s="9">
         <v>0.12</v>
       </c>
-      <c r="X13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="Y13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="Z13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AA13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AC13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AD13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AE13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AF13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AG13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AH13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AI13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AJ13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AK13" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AL13" s="9">
+      <c r="X14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AC14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AD14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AE14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AF14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AG14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AH14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AI14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AJ14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AK14" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AL14" s="26">
         <v>2</v>
       </c>
-      <c r="AM13" s="9">
+      <c r="AM14" s="26">
         <v>6</v>
       </c>
-      <c r="AN13" s="9">
+      <c r="AN14" s="26">
         <v>2</v>
       </c>
-      <c r="AO13" s="10">
+      <c r="AO14" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15">
-      <c r="A14" s="11">
+    <row r="15" spans="1:41" ht="15">
+      <c r="A15" s="11">
         <v>47</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B15" s="19">
         <v>3.63</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C15" s="19">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D15" s="19">
         <v>2.78</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E15" s="19">
         <v>3.38</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F15" s="19">
         <v>1.92</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G15" s="19">
         <v>2.46</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H15" s="36">
         <v>1.38</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I15" s="36">
         <v>1.88</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J15" s="19">
         <v>1.06</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K15" s="19">
         <v>1.52</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L15" s="34">
         <v>0.82</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M15" s="19">
         <v>1.24</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N15" s="19">
         <v>0.65</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O15" s="34">
         <v>1.03</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P15" s="19">
         <v>0.51</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q15" s="19">
         <v>0.87</v>
       </c>
-      <c r="R14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="S14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="T14" s="19">
+      <c r="R15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="S15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="T15" s="19">
         <v>0.08</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U15" s="19">
         <v>0.12</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V15" s="19">
         <v>0.08</v>
       </c>
-      <c r="W14" s="19">
+      <c r="W15" s="19">
         <v>0.12</v>
       </c>
-      <c r="X14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="Y14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="Z14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AA14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AB14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AC14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AD14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AE14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AF14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AG14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AH14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AI14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AJ14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AK14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AL14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AM14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AN14" s="19">
-        <v>9999</v>
-      </c>
-      <c r="AO14" s="20">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" ht="12.75">
-      <c r="A15" s="11">
-        <v>54</v>
-      </c>
-      <c r="B15" s="12">
-        <v>3.62</v>
-      </c>
-      <c r="C15" s="12">
-        <v>4.33</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2.31</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2.91</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1.43</v>
-      </c>
-      <c r="G15" s="12">
-        <v>1.98</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="I15" s="12">
-        <v>1.48</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.71</v>
-      </c>
-      <c r="K15" s="12">
-        <v>1.17</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0.98</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0.43</v>
-      </c>
-      <c r="O15" s="12">
-        <v>0.82</v>
-      </c>
-      <c r="P15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="R15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="S15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="T15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="U15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="V15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="W15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="X15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Y15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Z15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AA15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AB15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AC15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AD15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AE15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AF15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AG15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AH15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AI15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AJ15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AK15" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AL15" s="12">
-        <v>2</v>
-      </c>
-      <c r="AM15" s="12">
-        <v>6</v>
-      </c>
-      <c r="AN15" s="12">
-        <v>2</v>
-      </c>
-      <c r="AO15" s="13">
-        <v>6</v>
+      <c r="X15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="Z15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AA15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AB15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AC15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AD15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AE15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AF15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AG15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AH15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AI15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AJ15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AK15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AL15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AM15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AN15" s="19">
+        <v>9999</v>
+      </c>
+      <c r="AO15" s="20">
+        <v>9999</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="12.75">
       <c r="A16" s="11">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B16" s="12">
         <v>3.62</v>
@@ -3171,800 +3313,800 @@
         <v>4.33</v>
       </c>
       <c r="D16" s="12">
-        <v>4.42</v>
+        <v>2.31</v>
       </c>
       <c r="E16" s="12">
-        <v>5.01</v>
+        <v>2.91</v>
       </c>
       <c r="F16" s="12">
-        <v>2.87</v>
+        <v>1.43</v>
       </c>
       <c r="G16" s="12">
-        <v>3.42</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1.85</v>
-      </c>
-      <c r="I16" s="12">
-        <v>2.36</v>
-      </c>
-      <c r="J16" s="12">
-        <v>1.44</v>
-      </c>
-      <c r="K16" s="12">
-        <v>1.9</v>
+        <v>1.98</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.98</v>
+      </c>
+      <c r="I16" s="29">
+        <v>1.48</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0.71</v>
+      </c>
+      <c r="K16" s="29">
+        <v>1.17</v>
       </c>
       <c r="L16" s="12">
-        <v>1.07</v>
-      </c>
-      <c r="M16" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0.81</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M16" s="29">
+        <v>0.98</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0.43</v>
       </c>
       <c r="O16" s="12">
-        <v>1.19</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0.66</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>1.02</v>
-      </c>
-      <c r="R16" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="S16" s="12">
-        <v>0.83</v>
+        <v>0.82</v>
+      </c>
+      <c r="P16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="R16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="S16" s="29">
+        <v>9999</v>
       </c>
       <c r="T16" s="12">
-        <v>0.1</v>
+        <v>9999</v>
       </c>
       <c r="U16" s="12">
-        <v>0.14000000000000001</v>
+        <v>9999</v>
       </c>
       <c r="V16" s="12">
-        <v>0.1</v>
+        <v>9999</v>
       </c>
       <c r="W16" s="12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="12">
-        <v>100</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="12">
-        <v>100</v>
-      </c>
-      <c r="AB16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="12">
-        <v>100</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>100</v>
-      </c>
-      <c r="AF16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="12">
-        <v>100</v>
-      </c>
-      <c r="AH16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="12">
-        <v>100</v>
-      </c>
-      <c r="AJ16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="12">
-        <v>100</v>
-      </c>
-      <c r="AL16" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AM16" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AN16" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>9999</v>
+        <v>9999</v>
+      </c>
+      <c r="X16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Y16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Z16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AA16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AB16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AC16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AD16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AE16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AF16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AG16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AH16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AI16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AJ16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AK16" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AL16" s="29">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="29">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="29">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="30">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="12.75">
       <c r="A17" s="11">
-        <v>67</v>
-      </c>
-      <c r="B17" s="9">
-        <v>3.37</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4.08</v>
-      </c>
-      <c r="D17" s="9">
-        <v>3.61</v>
-      </c>
-      <c r="E17" s="9">
-        <v>4.21</v>
-      </c>
-      <c r="F17" s="9">
-        <v>2.17</v>
-      </c>
-      <c r="G17" s="9">
-        <v>2.71</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1.56</v>
-      </c>
-      <c r="I17" s="9">
-        <v>2.06</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1.23</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1.69</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0.97</v>
-      </c>
-      <c r="M17" s="9">
-        <v>1.39</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0.77</v>
-      </c>
-      <c r="O17" s="9">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="P17" s="9">
-        <v>0.67</v>
-      </c>
-      <c r="Q17" s="9">
+        <v>62</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3.62</v>
+      </c>
+      <c r="C17" s="12">
+        <v>4.33</v>
+      </c>
+      <c r="D17" s="12">
+        <v>4.42</v>
+      </c>
+      <c r="E17" s="12">
+        <v>5.01</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2.87</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3.42</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="I17" s="29">
+        <v>2.36</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1.44</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="L17" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="M17" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0.81</v>
+      </c>
+      <c r="O17" s="12">
+        <v>1.19</v>
+      </c>
+      <c r="P17" s="29">
+        <v>0.66</v>
+      </c>
+      <c r="Q17" s="29">
         <v>1.02</v>
       </c>
-      <c r="R17" s="9">
-        <v>9999</v>
-      </c>
-      <c r="S17" s="9">
-        <v>9999</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="U17" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="V17" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="W17" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="X17" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="9">
-        <v>100</v>
-      </c>
-      <c r="Z17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AB17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AD17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AF17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AH17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AJ17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="9">
-        <v>100</v>
-      </c>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AN17" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AO17" s="10">
+      <c r="R17" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="S17" s="29">
+        <v>0.83</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X17" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="29">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="29">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="29">
+        <v>100</v>
+      </c>
+      <c r="AF17" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="29">
+        <v>100</v>
+      </c>
+      <c r="AH17" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="29">
+        <v>100</v>
+      </c>
+      <c r="AJ17" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="29">
+        <v>100</v>
+      </c>
+      <c r="AL17" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AM17" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AN17" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AO17" s="30">
         <v>9999</v>
       </c>
     </row>
     <row r="18" spans="1:41" ht="12.75">
       <c r="A18" s="11">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B18" s="9">
-        <v>0.9</v>
+        <v>2.93</v>
       </c>
       <c r="C18" s="9">
-        <v>1.3</v>
+        <v>3.64</v>
       </c>
       <c r="D18" s="9">
-        <v>13.7</v>
+        <v>3.2</v>
       </c>
       <c r="E18" s="9">
-        <v>14.3</v>
+        <v>3.8</v>
       </c>
       <c r="F18" s="9">
-        <v>10.73</v>
+        <v>1.91</v>
       </c>
       <c r="G18" s="9">
-        <v>11.27</v>
-      </c>
-      <c r="H18" s="9">
-        <v>7.46</v>
-      </c>
-      <c r="I18" s="9">
-        <v>7.96</v>
-      </c>
-      <c r="J18" s="9">
-        <v>5.86</v>
-      </c>
-      <c r="K18" s="9">
-        <v>6.32</v>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1.27</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1.77</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="K18" s="26">
+        <v>1.39</v>
       </c>
       <c r="L18" s="9">
-        <v>4.58</v>
-      </c>
-      <c r="M18" s="9">
-        <v>5</v>
-      </c>
-      <c r="N18" s="9">
-        <v>3.65</v>
-      </c>
-      <c r="O18" s="9">
-        <v>4.04</v>
-      </c>
-      <c r="P18" s="9">
-        <v>3.13</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>3.49</v>
-      </c>
-      <c r="R18" s="16">
-        <v>9999</v>
-      </c>
-      <c r="S18" s="16">
+        <v>0.71</v>
+      </c>
+      <c r="M18" s="26">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N18" s="26">
+        <v>9999</v>
+      </c>
+      <c r="O18" s="33">
+        <v>9999</v>
+      </c>
+      <c r="P18" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>9999</v>
+      </c>
+      <c r="R18" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S18" s="27">
         <v>9999</v>
       </c>
       <c r="T18" s="9">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="U18" s="9">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="V18" s="9">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="W18" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="X18" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>100</v>
-      </c>
-      <c r="Z18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AB18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AD18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AF18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AH18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AJ18" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="9">
-        <v>100</v>
-      </c>
-      <c r="AL18" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AM18" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AN18" s="9">
-        <v>9999</v>
-      </c>
-      <c r="AO18" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="X18" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="26">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="26">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="26">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="26">
+        <v>100</v>
+      </c>
+      <c r="AF18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="26">
+        <v>100</v>
+      </c>
+      <c r="AH18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="26">
+        <v>100</v>
+      </c>
+      <c r="AJ18" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="26">
+        <v>100</v>
+      </c>
+      <c r="AL18" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AM18" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AN18" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AO18" s="28">
         <v>9999</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="12.75">
       <c r="A19" s="11">
-        <v>74</v>
-      </c>
-      <c r="B19" s="12">
-        <v>3.13</v>
-      </c>
-      <c r="C19" s="12">
-        <v>3.84</v>
-      </c>
-      <c r="D19" s="12">
-        <v>4.42</v>
-      </c>
-      <c r="E19" s="12">
-        <v>5.01</v>
-      </c>
-      <c r="F19" s="12">
-        <v>2.87</v>
-      </c>
-      <c r="G19" s="12">
-        <v>3.42</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1.85</v>
-      </c>
-      <c r="I19" s="12">
-        <v>2.36</v>
-      </c>
-      <c r="J19" s="12">
-        <v>1.44</v>
-      </c>
-      <c r="K19" s="12">
-        <v>1.9</v>
-      </c>
-      <c r="L19" s="12">
-        <v>1.07</v>
-      </c>
-      <c r="M19" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0.81</v>
-      </c>
-      <c r="O19" s="12">
-        <v>1.19</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.66</v>
-      </c>
-      <c r="Q19" s="12">
+        <v>67</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3.37</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4.08</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3.61</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4.21</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1.56</v>
+      </c>
+      <c r="I19" s="26">
+        <v>2.06</v>
+      </c>
+      <c r="J19" s="26">
+        <v>1.23</v>
+      </c>
+      <c r="K19" s="26">
+        <v>1.69</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="M19" s="26">
+        <v>1.39</v>
+      </c>
+      <c r="N19" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="P19" s="26">
+        <v>0.67</v>
+      </c>
+      <c r="Q19" s="26">
         <v>1.02</v>
       </c>
-      <c r="R19" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="S19" s="12">
-        <v>0.83</v>
-      </c>
-      <c r="T19" s="12">
-        <v>0.32</v>
-      </c>
-      <c r="U19" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="V19" s="12">
-        <v>0.32</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>100</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="12">
-        <v>100</v>
-      </c>
-      <c r="AB19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="12">
-        <v>100</v>
-      </c>
-      <c r="AD19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="12">
-        <v>100</v>
-      </c>
-      <c r="AF19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="12">
-        <v>100</v>
-      </c>
-      <c r="AH19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="12">
-        <v>100</v>
-      </c>
-      <c r="AJ19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="12">
-        <v>100</v>
-      </c>
-      <c r="AL19" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AM19" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AN19" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AO19" s="17">
+      <c r="R19" s="26">
+        <v>9999</v>
+      </c>
+      <c r="S19" s="26">
+        <v>9999</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="X19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>100</v>
+      </c>
+      <c r="Z19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="26">
+        <v>100</v>
+      </c>
+      <c r="AB19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="26">
+        <v>100</v>
+      </c>
+      <c r="AD19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="26">
+        <v>100</v>
+      </c>
+      <c r="AF19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="26">
+        <v>100</v>
+      </c>
+      <c r="AH19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="26">
+        <v>100</v>
+      </c>
+      <c r="AJ19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="26">
+        <v>100</v>
+      </c>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AN19" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AO19" s="41">
         <v>9999</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="12.75">
       <c r="A20" s="11">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B20" s="9">
-        <v>3.62</v>
+        <v>0.9</v>
       </c>
       <c r="C20" s="9">
-        <v>4.33</v>
+        <v>1.3</v>
       </c>
       <c r="D20" s="9">
-        <v>2.61</v>
+        <v>13.7</v>
       </c>
       <c r="E20" s="9">
-        <v>3.2</v>
+        <v>14.3</v>
       </c>
       <c r="F20" s="9">
-        <v>1.48</v>
+        <v>10.73</v>
       </c>
       <c r="G20" s="9">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.97</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1.47</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1.1100000000000001</v>
+        <v>11.27</v>
+      </c>
+      <c r="H20" s="26">
+        <v>7.46</v>
+      </c>
+      <c r="I20" s="26">
+        <v>7.96</v>
+      </c>
+      <c r="J20" s="26">
+        <v>5.86</v>
+      </c>
+      <c r="K20" s="26">
+        <v>6.32</v>
       </c>
       <c r="L20" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0.86</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0.31</v>
+        <v>4.58</v>
+      </c>
+      <c r="M20" s="26">
+        <v>5</v>
+      </c>
+      <c r="N20" s="26">
+        <v>3.65</v>
       </c>
       <c r="O20" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0.49</v>
+        <v>4.04</v>
+      </c>
+      <c r="P20" s="26">
+        <v>3.13</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>3.49</v>
+      </c>
+      <c r="R20" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S20" s="27">
+        <v>9999</v>
       </c>
       <c r="T20" s="9">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="U20" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="V20" s="9">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="W20" s="9">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="X20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Y20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Z20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AA20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AB20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AC20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AD20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AE20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AF20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AG20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AH20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AI20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AJ20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AK20" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AL20" s="18">
-        <v>2</v>
-      </c>
-      <c r="AM20" s="9">
-        <v>6</v>
-      </c>
-      <c r="AN20" s="9">
-        <v>2</v>
-      </c>
-      <c r="AO20" s="10">
-        <v>6</v>
+        <v>0.16</v>
+      </c>
+      <c r="X20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="26">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="26">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="26">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="26">
+        <v>100</v>
+      </c>
+      <c r="AF20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="26">
+        <v>100</v>
+      </c>
+      <c r="AH20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="26">
+        <v>100</v>
+      </c>
+      <c r="AJ20" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="26">
+        <v>100</v>
+      </c>
+      <c r="AL20" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AM20" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AN20" s="26">
+        <v>9999</v>
+      </c>
+      <c r="AO20" s="28">
+        <v>9999</v>
       </c>
     </row>
     <row r="21" spans="1:41" ht="12.75">
       <c r="A21" s="11">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B21" s="12">
-        <v>3.81</v>
+        <v>3.13</v>
       </c>
       <c r="C21" s="12">
-        <v>4.87</v>
+        <v>3.84</v>
       </c>
       <c r="D21" s="12">
-        <v>2.78</v>
+        <v>4.42</v>
       </c>
       <c r="E21" s="12">
-        <v>3.38</v>
+        <v>5.01</v>
       </c>
       <c r="F21" s="12">
-        <v>1.92</v>
+        <v>2.87</v>
       </c>
       <c r="G21" s="12">
-        <v>2.46</v>
-      </c>
-      <c r="H21" s="12">
-        <v>1.38</v>
-      </c>
-      <c r="I21" s="12">
-        <v>1.88</v>
-      </c>
-      <c r="J21" s="12">
-        <v>1.06</v>
-      </c>
-      <c r="K21" s="12">
-        <v>1.52</v>
+        <v>3.42</v>
+      </c>
+      <c r="H21" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="I21" s="29">
+        <v>2.36</v>
+      </c>
+      <c r="J21" s="29">
+        <v>1.44</v>
+      </c>
+      <c r="K21" s="29">
+        <v>1.9</v>
       </c>
       <c r="L21" s="12">
-        <v>0.82</v>
-      </c>
-      <c r="M21" s="12">
-        <v>1.24</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0.65</v>
+        <v>1.07</v>
+      </c>
+      <c r="M21" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="29">
+        <v>0.81</v>
       </c>
       <c r="O21" s="12">
-        <v>1.03</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>0.88</v>
-      </c>
-      <c r="R21" s="12">
-        <v>9999</v>
-      </c>
-      <c r="S21" s="12">
-        <v>9999</v>
+        <v>1.19</v>
+      </c>
+      <c r="P21" s="29">
+        <v>0.66</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>1.02</v>
+      </c>
+      <c r="R21" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="S21" s="29">
+        <v>0.83</v>
       </c>
       <c r="T21" s="12">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="U21" s="12">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="V21" s="12">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="W21" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="X21" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Y21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Z21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AA21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AB21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AC21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AD21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AE21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AF21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AG21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AH21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AI21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AJ21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AK21" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AL21" s="18">
-        <v>2</v>
-      </c>
-      <c r="AM21" s="12">
-        <v>6</v>
-      </c>
-      <c r="AN21" s="12">
-        <v>2</v>
-      </c>
-      <c r="AO21" s="13">
-        <v>6</v>
+        <v>0.4</v>
+      </c>
+      <c r="X21" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="29">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="29">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="29">
+        <v>100</v>
+      </c>
+      <c r="AD21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="29">
+        <v>100</v>
+      </c>
+      <c r="AF21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="29">
+        <v>100</v>
+      </c>
+      <c r="AH21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="29">
+        <v>100</v>
+      </c>
+      <c r="AJ21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="29">
+        <v>100</v>
+      </c>
+      <c r="AL21" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AM21" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AN21" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AO21" s="28">
+        <v>9999</v>
       </c>
     </row>
     <row r="22" spans="1:41" ht="12.75">
       <c r="A22" s="11">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B22" s="9">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="C22" s="9">
-        <v>4.46</v>
+        <v>4.33</v>
       </c>
       <c r="D22" s="9">
-        <v>3.1</v>
+        <v>2.61</v>
       </c>
       <c r="E22" s="9">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="F22" s="9">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="G22" s="9">
-        <v>2.46</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1.37</v>
-      </c>
-      <c r="I22" s="9">
-        <v>1.88</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1.52</v>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0.97</v>
+      </c>
+      <c r="I22" s="26">
+        <v>1.47</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0.65</v>
+      </c>
+      <c r="K22" s="26">
+        <v>1.1100000000000001</v>
       </c>
       <c r="L22" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="M22" s="9">
-        <v>1.24</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0.64</v>
+        <v>0.44</v>
+      </c>
+      <c r="M22" s="26">
+        <v>0.86</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0.31</v>
       </c>
       <c r="O22" s="9">
-        <v>1.03</v>
-      </c>
-      <c r="P22" s="9">
-        <v>0.54</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="R22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="S22" s="16">
-        <v>9999</v>
+        <v>0.7</v>
+      </c>
+      <c r="P22" s="26">
+        <v>0.22</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R22" s="26">
+        <v>0.17</v>
+      </c>
+      <c r="S22" s="26">
+        <v>0.49</v>
       </c>
       <c r="T22" s="9">
         <v>0.1</v>
@@ -3978,356 +4120,356 @@
       <c r="W22" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Y22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Z22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AA22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AB22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AC22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AD22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AE22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AF22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AG22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AH22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AI22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AJ22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AK22" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AL22" s="18">
+      <c r="X22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Y22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Z22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AA22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AB22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AC22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AD22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AE22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AF22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AG22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AH22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AI22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AJ22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AK22" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AL22" s="40">
         <v>2</v>
       </c>
-      <c r="AM22" s="9">
+      <c r="AM22" s="26">
         <v>6</v>
       </c>
-      <c r="AN22" s="9">
+      <c r="AN22" s="26">
         <v>2</v>
       </c>
-      <c r="AO22" s="10">
+      <c r="AO22" s="41">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="15">
+    <row r="23" spans="1:41" ht="12.75">
       <c r="A23" s="11">
-        <v>90</v>
-      </c>
-      <c r="B23" s="14">
-        <v>3.93</v>
-      </c>
-      <c r="C23" s="14">
-        <v>4.99</v>
-      </c>
-      <c r="D23" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="E23" s="14">
-        <v>4.09</v>
-      </c>
-      <c r="F23" s="14">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="G23" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="H23" s="14">
-        <v>1.39</v>
-      </c>
-      <c r="I23" s="14">
-        <v>1.89</v>
-      </c>
-      <c r="J23" s="14">
-        <v>1.04</v>
-      </c>
-      <c r="K23" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="L23" s="14">
-        <v>0.79</v>
-      </c>
-      <c r="M23" s="14">
-        <v>1.21</v>
-      </c>
-      <c r="N23" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="O23" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="P23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="R23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="S23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="T23" s="14">
+        <v>84</v>
+      </c>
+      <c r="B23" s="12">
+        <v>3.81</v>
+      </c>
+      <c r="C23" s="12">
+        <v>4.87</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2.78</v>
+      </c>
+      <c r="E23" s="12">
+        <v>3.38</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1.92</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2.46</v>
+      </c>
+      <c r="H23" s="29">
+        <v>1.38</v>
+      </c>
+      <c r="I23" s="29">
+        <v>1.88</v>
+      </c>
+      <c r="J23" s="29">
+        <v>1.06</v>
+      </c>
+      <c r="K23" s="29">
+        <v>1.52</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="M23" s="29">
+        <v>1.24</v>
+      </c>
+      <c r="N23" s="29">
+        <v>0.65</v>
+      </c>
+      <c r="O23" s="12">
+        <v>1.03</v>
+      </c>
+      <c r="P23" s="29">
+        <v>0.52</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>0.88</v>
+      </c>
+      <c r="R23" s="29">
+        <v>9999</v>
+      </c>
+      <c r="S23" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T23" s="12">
         <v>0.11</v>
       </c>
-      <c r="U23" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="V23" s="14">
+      <c r="U23" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="V23" s="12">
         <v>0.11</v>
       </c>
-      <c r="W23" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="X23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="Y23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="Z23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AA23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AB23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AC23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AD23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AE23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AF23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AG23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AH23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AI23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AJ23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AK23" s="14">
-        <v>9999</v>
-      </c>
-      <c r="AL23" s="14">
+      <c r="W23" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="X23" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Y23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Z23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AA23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AB23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AC23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AD23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AE23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AF23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AG23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AH23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AI23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AJ23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AK23" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AL23" s="40">
         <v>2</v>
       </c>
-      <c r="AM23" s="14">
+      <c r="AM23" s="29">
         <v>6</v>
       </c>
-      <c r="AN23" s="14">
+      <c r="AN23" s="29">
         <v>2</v>
       </c>
-      <c r="AO23" s="15">
+      <c r="AO23" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:41" ht="12.75">
       <c r="A24" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="9">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="C24" s="9">
-        <v>4.33</v>
+        <v>4.46</v>
       </c>
       <c r="D24" s="9">
-        <v>3.76</v>
+        <v>3.1</v>
       </c>
       <c r="E24" s="9">
-        <v>4.3499999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="F24" s="9">
-        <v>2.0299999999999998</v>
+        <v>1.91</v>
       </c>
       <c r="G24" s="9">
-        <v>2.58</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1.34</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1.85</v>
-      </c>
-      <c r="J24" s="9">
-        <v>1.02</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1.48</v>
+        <v>2.46</v>
+      </c>
+      <c r="H24" s="26">
+        <v>1.37</v>
+      </c>
+      <c r="I24" s="26">
+        <v>1.88</v>
+      </c>
+      <c r="J24" s="26">
+        <v>1.05</v>
+      </c>
+      <c r="K24" s="26">
+        <v>1.52</v>
       </c>
       <c r="L24" s="9">
-        <v>0.79</v>
-      </c>
-      <c r="M24" s="9">
-        <v>1.21</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0.6</v>
+        <v>0.82</v>
+      </c>
+      <c r="M24" s="26">
+        <v>1.24</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0.64</v>
       </c>
       <c r="O24" s="9">
-        <v>0.99</v>
-      </c>
-      <c r="P24" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Q24" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R24" s="16">
-        <v>9999</v>
-      </c>
-      <c r="S24" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="P24" s="26">
+        <v>0.54</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="R24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S24" s="27">
         <v>9999</v>
       </c>
       <c r="T24" s="9">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="U24" s="9">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="V24" s="9">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="W24" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="X24" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="9">
-        <v>100</v>
-      </c>
-      <c r="Z24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AB24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AD24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AF24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AH24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AJ24" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="9">
-        <v>100</v>
-      </c>
-      <c r="AL24" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AM24" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AN24" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AO24" s="21">
-        <v>9999</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Y24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Z24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AA24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AB24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AC24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AD24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AE24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AF24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AG24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AH24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AI24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AJ24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AK24" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AL24" s="40">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="26">
+        <v>6</v>
+      </c>
+      <c r="AN24" s="26">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="41">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:41" ht="15">
       <c r="A25" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="14">
-        <v>2.5299999999999998</v>
+        <v>3.93</v>
       </c>
       <c r="C25" s="14">
-        <v>3.59</v>
+        <v>4.99</v>
       </c>
       <c r="D25" s="14">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="14">
-        <v>5</v>
+        <v>4.09</v>
       </c>
       <c r="F25" s="14">
-        <v>2.33</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G25" s="14">
-        <v>2.87</v>
-      </c>
-      <c r="H25" s="14">
-        <v>1.35</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1.85</v>
+        <v>2.6</v>
+      </c>
+      <c r="H25" s="35">
+        <v>1.39</v>
+      </c>
+      <c r="I25" s="35">
+        <v>1.89</v>
       </c>
       <c r="J25" s="14">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="K25" s="14">
-        <v>1.43</v>
-      </c>
-      <c r="L25" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="L25" s="32">
         <v>0.79</v>
       </c>
       <c r="M25" s="14">
         <v>1.21</v>
       </c>
       <c r="N25" s="14">
-        <v>0.67</v>
-      </c>
-      <c r="O25" s="14">
-        <v>1.05</v>
+        <v>0.6</v>
+      </c>
+      <c r="O25" s="32">
+        <v>0.99</v>
       </c>
       <c r="P25" s="14">
         <v>9999</v>
@@ -4342,16 +4484,16 @@
         <v>9999</v>
       </c>
       <c r="T25" s="14">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="U25" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="V25" s="14">
         <v>0.11</v>
       </c>
-      <c r="V25" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="W25" s="14">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="X25" s="14">
         <v>9999</v>
@@ -4396,265 +4538,640 @@
         <v>9999</v>
       </c>
       <c r="AL25" s="14">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="AM25" s="14">
-        <v>9999</v>
+        <v>6</v>
       </c>
       <c r="AN25" s="14">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="AO25" s="15">
-        <v>9999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:41" ht="12.75">
       <c r="A26" s="11">
+        <v>91</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3.62</v>
+      </c>
+      <c r="C26" s="9">
+        <v>4.33</v>
+      </c>
+      <c r="D26" s="9">
+        <v>3.76</v>
+      </c>
+      <c r="E26" s="9">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2.58</v>
+      </c>
+      <c r="H26" s="26">
+        <v>1.34</v>
+      </c>
+      <c r="I26" s="26">
+        <v>1.85</v>
+      </c>
+      <c r="J26" s="26">
+        <v>1.02</v>
+      </c>
+      <c r="K26" s="26">
+        <v>1.48</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="M26" s="26">
+        <v>1.21</v>
+      </c>
+      <c r="N26" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="P26" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>9999</v>
+      </c>
+      <c r="R26" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S26" s="27">
+        <v>9999</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="X26" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="26">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="26">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="26">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="26">
+        <v>100</v>
+      </c>
+      <c r="AF26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="26">
+        <v>100</v>
+      </c>
+      <c r="AH26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="26">
+        <v>100</v>
+      </c>
+      <c r="AJ26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="26">
+        <v>100</v>
+      </c>
+      <c r="AL26" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AM26" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AN26" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AO26" s="42">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" ht="15">
+      <c r="A27" s="11">
+        <v>92</v>
+      </c>
+      <c r="B27" s="14">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C27" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="D27" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E27" s="14">
+        <v>5</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2.33</v>
+      </c>
+      <c r="G27" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="H27" s="35">
+        <v>1.35</v>
+      </c>
+      <c r="I27" s="35">
+        <v>1.85</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="K27" s="14">
+        <v>1.43</v>
+      </c>
+      <c r="L27" s="32">
+        <v>0.79</v>
+      </c>
+      <c r="M27" s="14">
+        <v>1.21</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="O27" s="32">
+        <v>1.05</v>
+      </c>
+      <c r="P27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="R27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="S27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="T27" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U27" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="V27" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W27" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="X27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AH27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AI27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AJ27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AK27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AL27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AM27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AN27" s="14">
+        <v>9999</v>
+      </c>
+      <c r="AO27" s="15">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" ht="12.75">
+      <c r="A28" s="11">
+        <v>94</v>
+      </c>
+      <c r="B28" s="12">
+        <v>2.91</v>
+      </c>
+      <c r="C28" s="12">
+        <v>3.62</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3.61</v>
+      </c>
+      <c r="E28" s="12">
+        <v>4.21</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2.02</v>
+      </c>
+      <c r="G28" s="12">
+        <v>2.56</v>
+      </c>
+      <c r="H28" s="29">
+        <v>1.33</v>
+      </c>
+      <c r="I28" s="29">
+        <v>1.83</v>
+      </c>
+      <c r="J28" s="29">
+        <v>0.96</v>
+      </c>
+      <c r="K28" s="29">
+        <v>1.42</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="M28" s="29">
+        <v>1.18</v>
+      </c>
+      <c r="N28" s="29">
+        <v>0.64</v>
+      </c>
+      <c r="O28" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="P28" s="29">
+        <v>0.49</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="R28" s="29">
+        <v>9999</v>
+      </c>
+      <c r="S28" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T28" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="U28" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="V28" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="W28" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="X28" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>100</v>
+      </c>
+      <c r="Z28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="29">
+        <v>100</v>
+      </c>
+      <c r="AB28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="29">
+        <v>100</v>
+      </c>
+      <c r="AD28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="29">
+        <v>100</v>
+      </c>
+      <c r="AF28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="29">
+        <v>100</v>
+      </c>
+      <c r="AH28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="29">
+        <v>100</v>
+      </c>
+      <c r="AJ28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="29">
+        <v>100</v>
+      </c>
+      <c r="AL28" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AM28" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AN28" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AO28" s="30">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" ht="12.75">
+      <c r="A29" s="11">
         <v>98</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B29" s="12">
         <v>4.7300000000000004</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C29" s="12">
         <v>5.79</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D29" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E29" s="12">
         <v>5</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F29" s="12">
         <v>2.33</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G29" s="12">
         <v>2.87</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H29" s="29">
         <v>1.35</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I29" s="29">
         <v>1.85</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J29" s="29">
         <v>0.97</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K29" s="29">
         <v>1.43</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L29" s="12">
         <v>0.79</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M29" s="29">
         <v>1.21</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N29" s="29">
         <v>0.67</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O29" s="12">
         <v>1.05</v>
       </c>
-      <c r="P26" s="16">
-        <v>9999</v>
-      </c>
-      <c r="Q26" s="16">
-        <v>9999</v>
-      </c>
-      <c r="R26" s="16">
-        <v>9999</v>
-      </c>
-      <c r="S26" s="16">
-        <v>9999</v>
-      </c>
-      <c r="T26" s="12">
+      <c r="P29" s="27">
+        <v>9999</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>9999</v>
+      </c>
+      <c r="R29" s="27">
+        <v>9999</v>
+      </c>
+      <c r="S29" s="27">
+        <v>9999</v>
+      </c>
+      <c r="T29" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="U26" s="12">
+      <c r="U29" s="12">
         <v>0.34</v>
       </c>
-      <c r="V26" s="12">
+      <c r="V29" s="12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="W26" s="12">
+      <c r="W29" s="12">
         <v>0.34</v>
       </c>
-      <c r="X26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="12">
-        <v>100</v>
-      </c>
-      <c r="Z26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="12">
-        <v>100</v>
-      </c>
-      <c r="AB26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="12">
-        <v>100</v>
-      </c>
-      <c r="AD26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="12">
-        <v>100</v>
-      </c>
-      <c r="AF26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="12">
-        <v>100</v>
-      </c>
-      <c r="AH26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="12">
-        <v>100</v>
-      </c>
-      <c r="AJ26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="12">
-        <v>100</v>
-      </c>
-      <c r="AL26" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AM26" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AN26" s="16">
-        <v>9999</v>
-      </c>
-      <c r="AO26" s="17">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41" ht="12.75">
-      <c r="A27" s="11">
-        <v>100</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="X29" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="29">
+        <v>100</v>
+      </c>
+      <c r="Z29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="29">
+        <v>100</v>
+      </c>
+      <c r="AB29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="29">
+        <v>100</v>
+      </c>
+      <c r="AD29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="29">
+        <v>100</v>
+      </c>
+      <c r="AF29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="29">
+        <v>100</v>
+      </c>
+      <c r="AH29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="29">
+        <v>100</v>
+      </c>
+      <c r="AJ29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="29">
+        <v>100</v>
+      </c>
+      <c r="AL29" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AM29" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AN29" s="27">
+        <v>9999</v>
+      </c>
+      <c r="AO29" s="28">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" ht="12.75">
+      <c r="A30" s="11">
+        <v>100</v>
+      </c>
+      <c r="B30" s="12">
         <v>6.89</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C30" s="12">
         <v>7.33</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D30" s="12">
         <v>2.79</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E30" s="12">
         <v>3.39</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F30" s="12">
         <v>1.61</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G30" s="12">
         <v>2.16</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H30" s="29">
         <v>1.07</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I30" s="29">
         <v>1.57</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J30" s="29">
         <v>0.81</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K30" s="29">
         <v>1.27</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L30" s="12">
         <v>0.65</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M30" s="29">
         <v>1.07</v>
       </c>
-      <c r="N27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="O27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="P27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="R27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="S27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="T27" s="12">
+      <c r="N30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="O30" s="12">
+        <v>9999</v>
+      </c>
+      <c r="P30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Q30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="R30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="S30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T30" s="12">
         <v>0.21</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U30" s="12">
         <v>0.25</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V30" s="12">
         <v>0.21</v>
       </c>
-      <c r="W27" s="12">
+      <c r="W30" s="12">
         <v>0.25</v>
       </c>
-      <c r="X27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Y27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="Z27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AA27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AB27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AC27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AD27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AE27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AF27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AG27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AH27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AI27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AJ27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AK27" s="12">
-        <v>9999</v>
-      </c>
-      <c r="AL27" s="12">
+      <c r="X30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Y30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="Z30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AA30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AB30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AC30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AD30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AE30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AF30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AG30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AH30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AI30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AJ30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AK30" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AL30" s="29">
         <v>2</v>
       </c>
-      <c r="AM27" s="12">
+      <c r="AM30" s="29">
         <v>6</v>
       </c>
-      <c r="AN27" s="12">
+      <c r="AN30" s="29">
         <v>2</v>
       </c>
-      <c r="AO27" s="13">
+      <c r="AO30" s="30">
         <v>6</v>
       </c>
     </row>

--- a/configuration reglage.xlsx
+++ b/configuration reglage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDUSCMAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90C90C4-1220-4E2A-833F-A22438E7F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC1EFD6-0A15-4B70-9038-D7DA9B461F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="178">
   <si>
     <t>marque</t>
   </si>
@@ -560,13 +560,19 @@
   </si>
   <si>
     <t>Fenyr SuperSport</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>default_background</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -618,6 +624,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -823,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -918,11 +930,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -947,11 +959,17 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1093,14 +1111,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Feuille 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="35"/>
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
     <tableStyle name="Feuille 2-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="firstRowStripe" dxfId="32"/>
+      <tableStyleElement type="secondRowStripe" dxfId="31"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1115,8 +1133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="config" displayName="config" ref="A1:AO30">
-  <tableColumns count="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="config" displayName="config" ref="A1:AP30">
+  <tableColumns count="42">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="car_id"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="rapport_final_min"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="rapport_final_max"/>
@@ -1124,40 +1142,41 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="premiere_vitesse_max"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="deuxieme_vitesse_min"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="deuxieme_vitesse_max"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="troisieme_vitesse_min" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="troisieme_vitesse_max" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="quatrieme_vitesse_min" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="quatrieme_vitesse_max" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="cinquieme_vitesse_min" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="cinquieme_vitesse_max" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="sixieme_vitesse_min" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="sixieme_vitesse_max" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="septieme_vitesse_min" dataDxfId="21"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="septieme_vitesse_max" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="huitieme_vitesse_min" dataDxfId="19"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="huitieme_vitesse_max" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="troisieme_vitesse_min" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="troisieme_vitesse_max" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="quatrieme_vitesse_min" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="quatrieme_vitesse_max" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="cinquieme_vitesse_min" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="cinquieme_vitesse_max" dataDxfId="25"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="sixieme_vitesse_min" dataDxfId="24"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="sixieme_vitesse_max" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="septieme_vitesse_min" dataDxfId="22"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="septieme_vitesse_max" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="huitieme_vitesse_min" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="huitieme_vitesse_max" dataDxfId="19"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="taille_suspension_arriere_min"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="taille_suspension_arriere_max"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="taille_suspension_avant_min"/>
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="taille_suspension_avant_max"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="acceleration_avant_min" dataDxfId="17"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="acceleration_avant_max" dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="deceleration_avant_min" dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="deceleration_avant_max" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="freinage_avant_min" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="freinage_avant_max" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="distribution_puissance_avant_arriere_min" dataDxfId="11"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="distribution_puissance_avant_arriere_max" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="acceleration_centrale_min" dataDxfId="9"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="acceleration_centrale_max" dataDxfId="8"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="deceleration_centrale_min" dataDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="deceleration_centrale_max" dataDxfId="6"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="freinage_centrale_min" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="freinage_centrale_max" dataDxfId="4"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="pression_pneus_arriere_min" dataDxfId="3"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="pression_pneus_arriere_max" dataDxfId="2"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="pression_pneus_avant_min" dataDxfId="1"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="pression_pneus_avant_max" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="acceleration_avant_min" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="acceleration_avant_max" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="deceleration_avant_min" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="deceleration_avant_max" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="freinage_avant_min" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="freinage_avant_max" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="distribution_puissance_avant_arriere_min" dataDxfId="12"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="distribution_puissance_avant_arriere_max" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="acceleration_centrale_min" dataDxfId="10"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="acceleration_centrale_max" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="deceleration_centrale_min" dataDxfId="8"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="deceleration_centrale_max" dataDxfId="7"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="freinage_centrale_min" dataDxfId="6"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="freinage_centrale_max" dataDxfId="5"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="pression_pneus_arriere_min" dataDxfId="4"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="pression_pneus_arriere_max" dataDxfId="3"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="pression_pneus_avant_min" dataDxfId="2"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="pression_pneus_avant_max" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8A2977B7-378E-4E7D-9BDC-5DB9009FA432}" name="background" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Feuille 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1415,10 +1434,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AO1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1429,9 +1448,10 @@
     <col min="16" max="19" width="12.5703125" style="38"/>
     <col min="24" max="40" width="12.5703125" style="38"/>
     <col min="41" max="41" width="28.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75" customHeight="1">
+    <row r="1" spans="1:42" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1555,8 +1575,11 @@
       <c r="AO1" s="39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" ht="15.75" customHeight="1">
+      <c r="AP1" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="15.75" customHeight="1">
       <c r="A2" s="11">
         <v>10</v>
       </c>
@@ -1680,8 +1703,11 @@
       <c r="AO2" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" ht="12.75">
+      <c r="AP2" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="12.75">
       <c r="A3" s="11">
         <v>14</v>
       </c>
@@ -1805,8 +1831,11 @@
       <c r="AO3" s="28">
         <v>9999</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" ht="12.75">
+      <c r="AP3" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="12.75">
       <c r="A4" s="11">
         <v>15</v>
       </c>
@@ -1930,8 +1959,11 @@
       <c r="AO4" s="41">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" ht="12.75">
+      <c r="AP4" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="12.75">
       <c r="A5" s="11">
         <v>20</v>
       </c>
@@ -2049,10 +2081,17 @@
       <c r="AM5" s="27">
         <v>9999</v>
       </c>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="30"/>
-    </row>
-    <row r="6" spans="1:41" ht="12.75">
+      <c r="AN5" s="29">
+        <v>9999</v>
+      </c>
+      <c r="AO5" s="30">
+        <v>9999</v>
+      </c>
+      <c r="AP5" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="12.75">
       <c r="A6" s="11">
         <v>22</v>
       </c>
@@ -2176,8 +2215,11 @@
       <c r="AO6" s="30">
         <v>9999</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" ht="12.75">
+      <c r="AP6" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="12.75">
       <c r="A7" s="11">
         <v>27</v>
       </c>
@@ -2301,8 +2343,11 @@
       <c r="AO7" s="28">
         <v>9999</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" ht="12.75">
+      <c r="AP7" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="12.75">
       <c r="A8" s="11">
         <v>28</v>
       </c>
@@ -2426,8 +2471,11 @@
       <c r="AO8" s="28">
         <v>9999</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" ht="12.75">
+      <c r="AP8" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="12.75">
       <c r="A9" s="11">
         <v>30</v>
       </c>
@@ -2551,8 +2599,11 @@
       <c r="AO9" s="30">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" ht="12.75">
+      <c r="AP9" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="12.75">
       <c r="A10" s="11">
         <v>31</v>
       </c>
@@ -2676,8 +2727,11 @@
       <c r="AO10" s="41">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" ht="12.75">
+      <c r="AP10" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="12.75">
       <c r="A11" s="11">
         <v>32</v>
       </c>
@@ -2801,8 +2855,11 @@
       <c r="AO11" s="30">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" ht="15">
+      <c r="AP11" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="15">
       <c r="A12" s="11">
         <v>36</v>
       </c>
@@ -2926,8 +2983,11 @@
       <c r="AO12" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" ht="15">
+      <c r="AP12" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15">
       <c r="A13" s="11">
         <v>41</v>
       </c>
@@ -3051,8 +3111,11 @@
       <c r="AO13" s="20">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:41" ht="12.75">
+      <c r="AP13" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="12.75">
       <c r="A14" s="11">
         <v>43</v>
       </c>
@@ -3176,8 +3239,11 @@
       <c r="AO14" s="41">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" ht="15">
+      <c r="AP14" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="15">
       <c r="A15" s="11">
         <v>47</v>
       </c>
@@ -3301,8 +3367,11 @@
       <c r="AO15" s="20">
         <v>9999</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" ht="12.75">
+      <c r="AP15" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" ht="12.75">
       <c r="A16" s="11">
         <v>54</v>
       </c>
@@ -3426,8 +3495,11 @@
       <c r="AO16" s="30">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" ht="12.75">
+      <c r="AP16" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="12.75">
       <c r="A17" s="11">
         <v>62</v>
       </c>
@@ -3551,8 +3623,11 @@
       <c r="AO17" s="30">
         <v>9999</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" ht="12.75">
+      <c r="AP17" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" ht="12.75">
       <c r="A18" s="11">
         <v>65</v>
       </c>
@@ -3676,8 +3751,11 @@
       <c r="AO18" s="28">
         <v>9999</v>
       </c>
-    </row>
-    <row r="19" spans="1:41" ht="12.75">
+      <c r="AP18" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="12.75">
       <c r="A19" s="11">
         <v>67</v>
       </c>
@@ -3799,8 +3877,11 @@
       <c r="AO19" s="41">
         <v>9999</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" ht="12.75">
+      <c r="AP19" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" ht="12.75">
       <c r="A20" s="11">
         <v>71</v>
       </c>
@@ -3924,8 +4005,11 @@
       <c r="AO20" s="28">
         <v>9999</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" ht="12.75">
+      <c r="AP20" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="12.75">
       <c r="A21" s="11">
         <v>74</v>
       </c>
@@ -4049,8 +4133,11 @@
       <c r="AO21" s="28">
         <v>9999</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" ht="12.75">
+      <c r="AP21" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="12.75">
       <c r="A22" s="11">
         <v>79</v>
       </c>
@@ -4174,8 +4261,11 @@
       <c r="AO22" s="41">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:41" ht="12.75">
+      <c r="AP22" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="12.75">
       <c r="A23" s="11">
         <v>84</v>
       </c>
@@ -4299,8 +4389,11 @@
       <c r="AO23" s="30">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:41" ht="12.75">
+      <c r="AP23" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="12.75">
       <c r="A24" s="11">
         <v>89</v>
       </c>
@@ -4424,8 +4517,11 @@
       <c r="AO24" s="41">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:41" ht="15">
+      <c r="AP24" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="15">
       <c r="A25" s="11">
         <v>90</v>
       </c>
@@ -4549,8 +4645,11 @@
       <c r="AO25" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:41" ht="12.75">
+      <c r="AP25" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" ht="12.75">
       <c r="A26" s="11">
         <v>91</v>
       </c>
@@ -4674,8 +4773,11 @@
       <c r="AO26" s="42">
         <v>9999</v>
       </c>
-    </row>
-    <row r="27" spans="1:41" ht="15">
+      <c r="AP26" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="15">
       <c r="A27" s="11">
         <v>92</v>
       </c>
@@ -4799,8 +4901,11 @@
       <c r="AO27" s="15">
         <v>9999</v>
       </c>
-    </row>
-    <row r="28" spans="1:41" ht="12.75">
+      <c r="AP27" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="12.75">
       <c r="A28" s="11">
         <v>94</v>
       </c>
@@ -4924,8 +5029,11 @@
       <c r="AO28" s="30">
         <v>9999</v>
       </c>
-    </row>
-    <row r="29" spans="1:41" ht="12.75">
+      <c r="AP28" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="12.75">
       <c r="A29" s="11">
         <v>98</v>
       </c>
@@ -5049,8 +5157,11 @@
       <c r="AO29" s="28">
         <v>9999</v>
       </c>
-    </row>
-    <row r="30" spans="1:41" ht="12.75">
+      <c r="AP29" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="12.75">
       <c r="A30" s="11">
         <v>100</v>
       </c>
@@ -5173,6 +5284,9 @@
       </c>
       <c r="AO30" s="30">
         <v>6</v>
+      </c>
+      <c r="AP30" s="38" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
